--- a/biology/Botanique/Heteropyxidaceae/Heteropyxidaceae.xlsx
+++ b/biology/Botanique/Heteropyxidaceae/Heteropyxidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG (1998)[1] et classification phylogénétique APG II (2003)[2], la famille des Heteropyxidaceae est une petite famille de plantes dicotylédones qui comprend trois espèces du genre Heteropyxis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG (1998) et classification phylogénétique APG II (2003), la famille des Heteropyxidaceae est une petite famille de plantes dicotylédones qui comprend trois espèces du genre Heteropyxis.
 Ce sont des petits arbres à feuilles alternes des régions tropicales, originaires d'Afrique australe.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Heteropyxis (en), composé du grec ἕτερος / eteros, « différent ; autre ; opposé », et πυξις / pyxis, boite, en références aux capsules du fruit. 
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3] cette famille n'existe pas : ces plantes sont assignées aux Myrtacées.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille des Myrtaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas : ces plantes sont assignées aux Myrtacées.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille des Myrtaceae.
 </t>
         </is>
       </c>
